--- a/lowe/edd/data/SJOS$HWS.xlsx
+++ b/lowe/edd/data/SJOS$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1619,14 +1619,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH103"/>
+  <dimension ref="A1:JI103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1636,12 +1636,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1669,12 +1669,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2489,11 +2489,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3296,8 +3299,11 @@
       <c r="JH9" s="11">
         <v>1055700</v>
       </c>
+      <c r="JI9" s="11">
+        <v>1058700</v>
+      </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4100,8 +4106,11 @@
       <c r="JH10" s="11">
         <v>1004900</v>
       </c>
+      <c r="JI10" s="11">
+        <v>1016500</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4904,8 +4913,11 @@
       <c r="JH11" s="11">
         <v>50800</v>
       </c>
+      <c r="JI11" s="11">
+        <v>42200</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5708,8 +5720,11 @@
       <c r="JH12" s="12">
         <v>4.8000000000000001E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6510,10 +6525,13 @@
         <v>1097800</v>
       </c>
       <c r="JH13" s="11">
-        <v>1105500</v>
+        <v>1104900</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>1110100</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7316,8 +7334,11 @@
       <c r="JH14" s="11">
         <v>5800</v>
       </c>
+      <c r="JI14" s="11">
+        <v>6000</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8118,10 +8139,13 @@
         <v>1091700</v>
       </c>
       <c r="JH15" s="11">
-        <v>1099700</v>
+        <v>1099100</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>1104100</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8922,10 +8946,13 @@
         <v>1006000</v>
       </c>
       <c r="JH16" s="11">
-        <v>1012600</v>
+        <v>1012100</v>
+      </c>
+      <c r="JI16" s="11">
+        <v>1014800</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9726,10 +9753,13 @@
         <v>221400</v>
       </c>
       <c r="JH17" s="11">
-        <v>224300</v>
+        <v>224000</v>
+      </c>
+      <c r="JI17" s="11">
+        <v>225300</v>
       </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10530,10 +10560,13 @@
         <v>50000</v>
       </c>
       <c r="JH18" s="11">
-        <v>50800</v>
+        <v>50600</v>
+      </c>
+      <c r="JI18" s="11">
+        <v>51200</v>
       </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11336,8 +11369,11 @@
       <c r="JH19" s="11">
         <v>200</v>
       </c>
+      <c r="JI19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12138,10 +12174,13 @@
         <v>49800</v>
       </c>
       <c r="JH20" s="11">
-        <v>50600</v>
+        <v>50400</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>51000</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12942,10 +12981,13 @@
         <v>36100</v>
       </c>
       <c r="JH21" s="11">
-        <v>37200</v>
+        <v>37000</v>
+      </c>
+      <c r="JI21" s="11">
+        <v>37800</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13746,10 +13788,13 @@
         <v>17500</v>
       </c>
       <c r="JH22" s="11">
-        <v>17900</v>
+        <v>17800</v>
+      </c>
+      <c r="JI22" s="11">
+        <v>17800</v>
       </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14550,10 +14595,13 @@
         <v>171400</v>
       </c>
       <c r="JH23" s="11">
-        <v>173500</v>
+        <v>173400</v>
+      </c>
+      <c r="JI23" s="11">
+        <v>174100</v>
       </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15354,10 +15402,13 @@
         <v>160100</v>
       </c>
       <c r="JH24" s="11">
-        <v>161700</v>
+        <v>161600</v>
+      </c>
+      <c r="JI24" s="11">
+        <v>162300</v>
       </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -16160,8 +16211,11 @@
       <c r="JH25" s="11">
         <v>11100</v>
       </c>
+      <c r="JI25" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -16962,10 +17016,13 @@
         <v>121500</v>
       </c>
       <c r="JH26" s="11">
-        <v>122000</v>
+        <v>122300</v>
+      </c>
+      <c r="JI26" s="11">
+        <v>122500</v>
       </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -17766,10 +17823,13 @@
         <v>58600</v>
       </c>
       <c r="JH27" s="11">
-        <v>58800</v>
+        <v>58900</v>
+      </c>
+      <c r="JI27" s="11">
+        <v>59300</v>
       </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -18570,10 +18630,13 @@
         <v>56500</v>
       </c>
       <c r="JH28" s="11">
-        <v>56600</v>
+        <v>56800</v>
+      </c>
+      <c r="JI28" s="11">
+        <v>57200</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>31</v>
       </c>
@@ -19374,10 +19437,13 @@
         <v>38300</v>
       </c>
       <c r="JH29" s="11">
+        <v>38700</v>
+      </c>
+      <c r="JI29" s="11">
         <v>38500</v>
       </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>32</v>
       </c>
@@ -20178,10 +20244,13 @@
         <v>3500</v>
       </c>
       <c r="JH30" s="11">
-        <v>3500</v>
+        <v>3400</v>
+      </c>
+      <c r="JI30" s="11">
+        <v>3400</v>
       </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20984,8 +21053,11 @@
       <c r="JH31" s="11">
         <v>26700</v>
       </c>
+      <c r="JI31" s="11">
+        <v>26500</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21788,8 +21860,11 @@
       <c r="JH32" s="11">
         <v>16100</v>
       </c>
+      <c r="JI32" s="11">
+        <v>16200</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>38</v>
       </c>
@@ -22592,8 +22667,11 @@
       <c r="JH33" s="11">
         <v>5400</v>
       </c>
+      <c r="JI33" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>39</v>
       </c>
@@ -23396,8 +23474,11 @@
       <c r="JH34" s="11">
         <v>4300</v>
       </c>
+      <c r="JI34" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>42</v>
       </c>
@@ -24200,8 +24281,11 @@
       <c r="JH35" s="11">
         <v>11800</v>
       </c>
+      <c r="JI35" s="11">
+        <v>11800</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>46</v>
       </c>
@@ -25002,10 +25086,13 @@
         <v>870300</v>
       </c>
       <c r="JH36" s="11">
-        <v>875400</v>
+        <v>875100</v>
+      </c>
+      <c r="JI36" s="11">
+        <v>878800</v>
       </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>47</v>
       </c>
@@ -25806,10 +25893,13 @@
         <v>784600</v>
       </c>
       <c r="JH37" s="11">
-        <v>788300</v>
+        <v>788100</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>789500</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>48</v>
       </c>
@@ -26610,10 +26700,13 @@
         <v>118300</v>
       </c>
       <c r="JH38" s="11">
+        <v>119100</v>
+      </c>
+      <c r="JI38" s="11">
         <v>118500</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>49</v>
       </c>
@@ -27414,10 +27507,13 @@
         <v>28700</v>
       </c>
       <c r="JH39" s="11">
-        <v>29100</v>
+        <v>28900</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>28200</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>50</v>
       </c>
@@ -28218,10 +28314,13 @@
         <v>21500</v>
       </c>
       <c r="JH40" s="11">
-        <v>21900</v>
+        <v>21800</v>
+      </c>
+      <c r="JI40" s="11">
+        <v>21100</v>
       </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>52</v>
       </c>
@@ -29022,10 +29121,13 @@
         <v>72900</v>
       </c>
       <c r="JH41" s="11">
-        <v>72300</v>
+        <v>72800</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>72600</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>53</v>
       </c>
@@ -29828,8 +29930,11 @@
       <c r="JH42" s="11">
         <v>3600</v>
       </c>
+      <c r="JI42" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>54</v>
       </c>
@@ -30630,10 +30735,13 @@
         <v>5700</v>
       </c>
       <c r="JH43" s="11">
+        <v>5800</v>
+      </c>
+      <c r="JI43" s="11">
         <v>5700</v>
       </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>55</v>
       </c>
@@ -31434,10 +31542,13 @@
         <v>16700</v>
       </c>
       <c r="JH44" s="11">
-        <v>16400</v>
+        <v>16700</v>
+      </c>
+      <c r="JI44" s="11">
+        <v>16700</v>
       </c>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>56</v>
       </c>
@@ -32240,8 +32351,11 @@
       <c r="JH45" s="11">
         <v>4200</v>
       </c>
+      <c r="JI45" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>57</v>
       </c>
@@ -33042,10 +33156,13 @@
         <v>8300</v>
       </c>
       <c r="JH46" s="11">
-        <v>8400</v>
+        <v>8300</v>
+      </c>
+      <c r="JI46" s="11">
+        <v>8200</v>
       </c>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>58</v>
       </c>
@@ -33846,10 +33963,13 @@
         <v>12500</v>
       </c>
       <c r="JH47" s="11">
-        <v>12500</v>
+        <v>12400</v>
+      </c>
+      <c r="JI47" s="11">
+        <v>12600</v>
       </c>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>60</v>
       </c>
@@ -34650,10 +34770,13 @@
         <v>16700</v>
       </c>
       <c r="JH48" s="11">
-        <v>17100</v>
+        <v>17400</v>
+      </c>
+      <c r="JI48" s="11">
+        <v>17700</v>
       </c>
     </row>
-    <row r="49" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>62</v>
       </c>
@@ -35454,10 +35577,13 @@
         <v>14900</v>
       </c>
       <c r="JH49" s="11">
-        <v>15300</v>
+        <v>15500</v>
+      </c>
+      <c r="JI49" s="11">
+        <v>15800</v>
       </c>
     </row>
-    <row r="50" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>63</v>
       </c>
@@ -36258,10 +36384,13 @@
         <v>6200</v>
       </c>
       <c r="JH50" s="11">
-        <v>6300</v>
+        <v>6400</v>
+      </c>
+      <c r="JI50" s="11">
+        <v>6500</v>
       </c>
     </row>
-    <row r="51" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>66</v>
       </c>
@@ -37064,8 +37193,11 @@
       <c r="JH51" s="11">
         <v>110600</v>
       </c>
+      <c r="JI51" s="11">
+        <v>110300</v>
+      </c>
     </row>
-    <row r="52" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>67</v>
       </c>
@@ -37866,10 +37998,13 @@
         <v>38300</v>
       </c>
       <c r="JH52" s="11">
-        <v>38000</v>
+        <v>37900</v>
+      </c>
+      <c r="JI52" s="11">
+        <v>37600</v>
       </c>
     </row>
-    <row r="53" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>71</v>
       </c>
@@ -38670,10 +38805,13 @@
         <v>4700</v>
       </c>
       <c r="JH53" s="11">
-        <v>4600</v>
+        <v>4700</v>
+      </c>
+      <c r="JI53" s="11">
+        <v>4700</v>
       </c>
     </row>
-    <row r="54" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>74</v>
       </c>
@@ -39474,10 +39612,13 @@
         <v>37300</v>
       </c>
       <c r="JH54" s="11">
-        <v>37700</v>
+        <v>37500</v>
+      </c>
+      <c r="JI54" s="11">
+        <v>37100</v>
       </c>
     </row>
-    <row r="55" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>75</v>
       </c>
@@ -40278,10 +40419,13 @@
         <v>22600</v>
       </c>
       <c r="JH55" s="11">
-        <v>22800</v>
+        <v>22700</v>
+      </c>
+      <c r="JI55" s="11">
+        <v>22500</v>
       </c>
     </row>
-    <row r="56" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>76</v>
       </c>
@@ -41084,8 +41228,11 @@
       <c r="JH56" s="11">
         <v>13300</v>
       </c>
+      <c r="JI56" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="57" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>79</v>
       </c>
@@ -41886,10 +42033,13 @@
         <v>14700</v>
       </c>
       <c r="JH57" s="11">
-        <v>14900</v>
+        <v>14800</v>
+      </c>
+      <c r="JI57" s="11">
+        <v>14600</v>
       </c>
     </row>
-    <row r="58" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>80</v>
       </c>
@@ -42690,10 +42840,13 @@
         <v>12900</v>
       </c>
       <c r="JH58" s="11">
-        <v>13000</v>
+        <v>12900</v>
+      </c>
+      <c r="JI58" s="11">
+        <v>12700</v>
       </c>
     </row>
-    <row r="59" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>82</v>
       </c>
@@ -43494,10 +43647,13 @@
         <v>244300</v>
       </c>
       <c r="JH59" s="11">
-        <v>243500</v>
+        <v>244200</v>
+      </c>
+      <c r="JI59" s="11">
+        <v>246000</v>
       </c>
     </row>
-    <row r="60" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>83</v>
       </c>
@@ -44298,10 +44454,13 @@
         <v>168600</v>
       </c>
       <c r="JH60" s="11">
-        <v>168800</v>
+        <v>169400</v>
+      </c>
+      <c r="JI60" s="11">
+        <v>170000</v>
       </c>
     </row>
-    <row r="61" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>86</v>
       </c>
@@ -45102,10 +45261,13 @@
         <v>19500</v>
       </c>
       <c r="JH61" s="11">
-        <v>19500</v>
+        <v>19600</v>
+      </c>
+      <c r="JI61" s="11">
+        <v>19800</v>
       </c>
     </row>
-    <row r="62" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>87</v>
       </c>
@@ -45906,10 +46068,13 @@
         <v>90800</v>
       </c>
       <c r="JH62" s="11">
-        <v>91000</v>
+        <v>90900</v>
+      </c>
+      <c r="JI62" s="11">
+        <v>91200</v>
       </c>
     </row>
-    <row r="63" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>88</v>
       </c>
@@ -46710,10 +46875,13 @@
         <v>27000</v>
       </c>
       <c r="JH63" s="11">
-        <v>27200</v>
+        <v>27300</v>
+      </c>
+      <c r="JI63" s="11">
+        <v>27500</v>
       </c>
     </row>
-    <row r="64" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>90</v>
       </c>
@@ -47516,8 +47684,11 @@
       <c r="JH64" s="11">
         <v>14800</v>
       </c>
+      <c r="JI64" s="11">
+        <v>14800</v>
+      </c>
     </row>
-    <row r="65" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>91</v>
       </c>
@@ -48318,10 +48489,13 @@
         <v>60800</v>
       </c>
       <c r="JH65" s="11">
-        <v>59900</v>
+        <v>60000</v>
+      </c>
+      <c r="JI65" s="11">
+        <v>61200</v>
       </c>
     </row>
-    <row r="66" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>92</v>
       </c>
@@ -49122,10 +49296,13 @@
         <v>58100</v>
       </c>
       <c r="JH66" s="11">
-        <v>57200</v>
+        <v>57300</v>
+      </c>
+      <c r="JI66" s="11">
+        <v>58500</v>
       </c>
     </row>
-    <row r="67" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>93</v>
       </c>
@@ -49926,10 +50103,13 @@
         <v>21800</v>
       </c>
       <c r="JH67" s="11">
-        <v>21800</v>
+        <v>22000</v>
+      </c>
+      <c r="JI67" s="11">
+        <v>22400</v>
       </c>
     </row>
-    <row r="68" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>99</v>
       </c>
@@ -50730,10 +50910,13 @@
         <v>173400</v>
       </c>
       <c r="JH68" s="11">
-        <v>174300</v>
+        <v>173800</v>
+      </c>
+      <c r="JI68" s="11">
+        <v>173300</v>
       </c>
     </row>
-    <row r="69" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>100</v>
       </c>
@@ -51534,10 +51717,13 @@
         <v>38800</v>
       </c>
       <c r="JH69" s="11">
+        <v>39300</v>
+      </c>
+      <c r="JI69" s="11">
         <v>39400</v>
       </c>
     </row>
-    <row r="70" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>101</v>
       </c>
@@ -52340,8 +52526,11 @@
       <c r="JH70" s="11">
         <v>25900</v>
       </c>
+      <c r="JI70" s="11">
+        <v>25500</v>
+      </c>
     </row>
-    <row r="71" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>103</v>
       </c>
@@ -53142,10 +53331,13 @@
         <v>134600</v>
       </c>
       <c r="JH71" s="11">
-        <v>134900</v>
+        <v>134500</v>
+      </c>
+      <c r="JI71" s="11">
+        <v>133900</v>
       </c>
     </row>
-    <row r="72" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>104</v>
       </c>
@@ -53948,8 +54140,11 @@
       <c r="JH72" s="11">
         <v>48900</v>
       </c>
+      <c r="JI72" s="11">
+        <v>48000</v>
+      </c>
     </row>
-    <row r="73" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>107</v>
       </c>
@@ -54750,10 +54945,13 @@
         <v>30700</v>
       </c>
       <c r="JH73" s="11">
+        <v>30500</v>
+      </c>
+      <c r="JI73" s="11">
         <v>30700</v>
       </c>
     </row>
-    <row r="74" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>108</v>
       </c>
@@ -55556,8 +55754,11 @@
       <c r="JH74" s="11">
         <v>12400</v>
       </c>
+      <c r="JI74" s="11">
+        <v>12300</v>
+      </c>
     </row>
-    <row r="75" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>109</v>
       </c>
@@ -56358,10 +56559,13 @@
         <v>43000</v>
       </c>
       <c r="JH75" s="11">
+        <v>42700</v>
+      </c>
+      <c r="JI75" s="11">
         <v>42900</v>
       </c>
     </row>
-    <row r="76" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>110</v>
       </c>
@@ -57162,10 +57366,13 @@
         <v>76100</v>
       </c>
       <c r="JH76" s="11">
-        <v>77700</v>
+        <v>77600</v>
+      </c>
+      <c r="JI76" s="11">
+        <v>79400</v>
       </c>
     </row>
-    <row r="77" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>112</v>
       </c>
@@ -57966,10 +58173,13 @@
         <v>61500</v>
       </c>
       <c r="JH77" s="11">
-        <v>62300</v>
+        <v>62600</v>
+      </c>
+      <c r="JI77" s="11">
+        <v>64000</v>
       </c>
     </row>
-    <row r="78" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>113</v>
       </c>
@@ -58772,8 +58982,11 @@
       <c r="JH78" s="11">
         <v>6400</v>
       </c>
+      <c r="JI78" s="11">
+        <v>6400</v>
+      </c>
     </row>
-    <row r="79" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>114</v>
       </c>
@@ -59574,10 +59787,13 @@
         <v>55300</v>
       </c>
       <c r="JH79" s="11">
-        <v>55900</v>
+        <v>56200</v>
+      </c>
+      <c r="JI79" s="11">
+        <v>57600</v>
       </c>
     </row>
-    <row r="80" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>115</v>
       </c>
@@ -60018,10 +60234,13 @@
         <v>50400</v>
       </c>
       <c r="JH80" s="11">
-        <v>50900</v>
+        <v>50700</v>
+      </c>
+      <c r="JI80" s="11">
+        <v>50800</v>
       </c>
     </row>
-    <row r="81" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>118</v>
       </c>
@@ -60822,10 +61041,13 @@
         <v>25100</v>
       </c>
       <c r="JH81" s="11">
-        <v>26000</v>
+        <v>25300</v>
+      </c>
+      <c r="JI81" s="11">
+        <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>121</v>
       </c>
@@ -61626,10 +61848,13 @@
         <v>85700</v>
       </c>
       <c r="JH82" s="11">
-        <v>87100</v>
+        <v>87000</v>
+      </c>
+      <c r="JI82" s="11">
+        <v>89300</v>
       </c>
     </row>
-    <row r="83" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>122</v>
       </c>
@@ -62432,8 +62657,11 @@
       <c r="JH83" s="11">
         <v>10300</v>
       </c>
+      <c r="JI83" s="11">
+        <v>10300</v>
+      </c>
     </row>
-    <row r="84" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>124</v>
       </c>
@@ -63236,8 +63464,11 @@
       <c r="JH84" s="11">
         <v>700</v>
       </c>
+      <c r="JI84" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="85" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>125</v>
       </c>
@@ -64038,10 +64269,13 @@
         <v>75300</v>
       </c>
       <c r="JH85" s="11">
-        <v>76800</v>
+        <v>76700</v>
+      </c>
+      <c r="JI85" s="11">
+        <v>79000</v>
       </c>
     </row>
-    <row r="86" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>126</v>
       </c>
@@ -64844,8 +65078,11 @@
       <c r="JH86" s="11">
         <v>6300</v>
       </c>
+      <c r="JI86" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="87" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>127</v>
       </c>
@@ -65648,8 +65885,11 @@
       <c r="JH87" s="11">
         <v>4200</v>
       </c>
+      <c r="JI87" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="88" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>128</v>
       </c>
@@ -66452,8 +66692,11 @@
       <c r="JH88" s="11">
         <v>2100</v>
       </c>
+      <c r="JI88" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="89" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>129</v>
       </c>
@@ -67254,10 +67497,13 @@
         <v>68900</v>
       </c>
       <c r="JH89" s="11">
-        <v>70500</v>
+        <v>70400</v>
+      </c>
+      <c r="JI89" s="11">
+        <v>72100</v>
       </c>
     </row>
-    <row r="90" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>130</v>
       </c>
@@ -68060,8 +68306,11 @@
       <c r="JH90" s="11">
         <v>30000</v>
       </c>
+      <c r="JI90" s="11">
+        <v>31700</v>
+      </c>
     </row>
-    <row r="91" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>131</v>
       </c>
@@ -68862,10 +69111,13 @@
         <v>39900</v>
       </c>
       <c r="JH91" s="11">
-        <v>40500</v>
+        <v>40400</v>
+      </c>
+      <c r="JI91" s="11">
+        <v>40400</v>
       </c>
     </row>
-    <row r="92" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>132</v>
       </c>
@@ -69668,8 +69920,11 @@
       <c r="JH92" s="11">
         <v>22200</v>
       </c>
+      <c r="JI92" s="11">
+        <v>22500</v>
+      </c>
     </row>
-    <row r="93" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>133</v>
       </c>
@@ -70472,8 +70727,11 @@
       <c r="JH93" s="11">
         <v>13300</v>
       </c>
+      <c r="JI93" s="11">
+        <v>13100</v>
+      </c>
     </row>
-    <row r="94" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>134</v>
       </c>
@@ -71274,10 +71532,13 @@
         <v>4800</v>
       </c>
       <c r="JH94" s="11">
-        <v>5000</v>
+        <v>4900</v>
+      </c>
+      <c r="JI94" s="11">
+        <v>4800</v>
       </c>
     </row>
-    <row r="96" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>192</v>
       </c>

--- a/lowe/edd/data/SJOS$HWS.xlsx
+++ b/lowe/edd/data/SJOS$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1619,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI103"/>
+  <dimension ref="A1:JJ103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1636,12 +1636,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1669,12 +1669,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2492,11 +2492,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3300,10 +3303,13 @@
         <v>1055700</v>
       </c>
       <c r="JI9" s="11">
-        <v>1058700</v>
+        <v>1058500</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>1066300</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4109,8 +4115,11 @@
       <c r="JI10" s="11">
         <v>1016500</v>
       </c>
+      <c r="JJ10" s="11">
+        <v>1026200</v>
+      </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4914,10 +4923,13 @@
         <v>50800</v>
       </c>
       <c r="JI11" s="11">
-        <v>42200</v>
+        <v>42000</v>
+      </c>
+      <c r="JJ11" s="11">
+        <v>40100</v>
       </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5723,8 +5735,11 @@
       <c r="JI12" s="12">
         <v>0.04</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6528,10 +6543,13 @@
         <v>1104900</v>
       </c>
       <c r="JI13" s="11">
-        <v>1110100</v>
+        <v>1109900</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>1127200</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7335,10 +7353,13 @@
         <v>5800</v>
       </c>
       <c r="JI14" s="11">
-        <v>6000</v>
+        <v>5600</v>
+      </c>
+      <c r="JJ14" s="11">
+        <v>5800</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8142,10 +8163,13 @@
         <v>1099100</v>
       </c>
       <c r="JI15" s="11">
-        <v>1104100</v>
+        <v>1104300</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>1121400</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8949,10 +8973,13 @@
         <v>1012100</v>
       </c>
       <c r="JI16" s="11">
-        <v>1014800</v>
+        <v>1015000</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>1029100</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9756,10 +9783,13 @@
         <v>224000</v>
       </c>
       <c r="JI17" s="11">
-        <v>225300</v>
+        <v>224800</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>225500</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10563,10 +10593,13 @@
         <v>50600</v>
       </c>
       <c r="JI18" s="11">
-        <v>51200</v>
+        <v>50800</v>
+      </c>
+      <c r="JJ18" s="11">
+        <v>51600</v>
       </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11372,8 +11405,11 @@
       <c r="JI19" s="11">
         <v>200</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12177,10 +12213,13 @@
         <v>50400</v>
       </c>
       <c r="JI20" s="11">
-        <v>51000</v>
+        <v>50600</v>
+      </c>
+      <c r="JJ20" s="11">
+        <v>51400</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -12984,10 +13023,13 @@
         <v>37000</v>
       </c>
       <c r="JI21" s="11">
-        <v>37800</v>
+        <v>37600</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>37700</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13793,8 +13835,11 @@
       <c r="JI22" s="11">
         <v>17800</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>17800</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14598,10 +14643,13 @@
         <v>173400</v>
       </c>
       <c r="JI23" s="11">
-        <v>174100</v>
+        <v>174000</v>
+      </c>
+      <c r="JJ23" s="11">
+        <v>173900</v>
       </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15405,10 +15453,13 @@
         <v>161600</v>
       </c>
       <c r="JI24" s="11">
-        <v>162300</v>
+        <v>162200</v>
+      </c>
+      <c r="JJ24" s="11">
+        <v>162500</v>
       </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -16214,8 +16265,11 @@
       <c r="JI25" s="11">
         <v>11100</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>11100</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -17019,10 +17073,13 @@
         <v>122300</v>
       </c>
       <c r="JI26" s="11">
-        <v>122500</v>
+        <v>122400</v>
+      </c>
+      <c r="JJ26" s="11">
+        <v>123100</v>
       </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -17828,8 +17885,11 @@
       <c r="JI27" s="11">
         <v>59300</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>59900</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -18635,8 +18695,11 @@
       <c r="JI28" s="11">
         <v>57200</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>57800</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>31</v>
       </c>
@@ -19440,10 +19503,13 @@
         <v>38700</v>
       </c>
       <c r="JI29" s="11">
-        <v>38500</v>
+        <v>38400</v>
+      </c>
+      <c r="JJ29" s="11">
+        <v>38400</v>
       </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>32</v>
       </c>
@@ -20249,8 +20315,11 @@
       <c r="JI30" s="11">
         <v>3400</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>3400</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -21056,8 +21125,11 @@
       <c r="JI31" s="11">
         <v>26500</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>26400</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21863,8 +21935,11 @@
       <c r="JI32" s="11">
         <v>16200</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>16400</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>38</v>
       </c>
@@ -22670,8 +22745,11 @@
       <c r="JI33" s="11">
         <v>5300</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>39</v>
       </c>
@@ -23477,8 +23555,11 @@
       <c r="JI34" s="11">
         <v>4200</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>4100</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>42</v>
       </c>
@@ -24284,8 +24365,11 @@
       <c r="JI35" s="11">
         <v>11800</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>11400</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>46</v>
       </c>
@@ -25089,10 +25173,13 @@
         <v>875100</v>
       </c>
       <c r="JI36" s="11">
-        <v>878800</v>
+        <v>879500</v>
+      </c>
+      <c r="JJ36" s="11">
+        <v>895900</v>
       </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>47</v>
       </c>
@@ -25896,10 +25983,13 @@
         <v>788100</v>
       </c>
       <c r="JI37" s="11">
-        <v>789500</v>
+        <v>790200</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>803600</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>48</v>
       </c>
@@ -26703,10 +26793,13 @@
         <v>119100</v>
       </c>
       <c r="JI38" s="11">
-        <v>118500</v>
+        <v>119000</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>120100</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>49</v>
       </c>
@@ -27510,10 +27603,13 @@
         <v>28900</v>
       </c>
       <c r="JI39" s="11">
-        <v>28200</v>
+        <v>28600</v>
+      </c>
+      <c r="JJ39" s="11">
+        <v>28700</v>
       </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>50</v>
       </c>
@@ -28317,10 +28413,13 @@
         <v>21800</v>
       </c>
       <c r="JI40" s="11">
-        <v>21100</v>
+        <v>21200</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>21400</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>52</v>
       </c>
@@ -29124,10 +29223,13 @@
         <v>72800</v>
       </c>
       <c r="JI41" s="11">
-        <v>72600</v>
+        <v>72700</v>
+      </c>
+      <c r="JJ41" s="11">
+        <v>73700</v>
       </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>53</v>
       </c>
@@ -29933,8 +30035,11 @@
       <c r="JI42" s="11">
         <v>3600</v>
       </c>
+      <c r="JJ42" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>54</v>
       </c>
@@ -30740,8 +30845,11 @@
       <c r="JI43" s="11">
         <v>5700</v>
       </c>
+      <c r="JJ43" s="11">
+        <v>5600</v>
+      </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>55</v>
       </c>
@@ -31545,10 +31653,13 @@
         <v>16700</v>
       </c>
       <c r="JI44" s="11">
-        <v>16700</v>
+        <v>16600</v>
+      </c>
+      <c r="JJ44" s="11">
+        <v>16200</v>
       </c>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>56</v>
       </c>
@@ -32354,8 +32465,11 @@
       <c r="JI45" s="11">
         <v>4300</v>
       </c>
+      <c r="JJ45" s="11">
+        <v>4400</v>
+      </c>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>57</v>
       </c>
@@ -33161,8 +33275,11 @@
       <c r="JI46" s="11">
         <v>8200</v>
       </c>
+      <c r="JJ46" s="11">
+        <v>8400</v>
+      </c>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>58</v>
       </c>
@@ -33968,8 +34085,11 @@
       <c r="JI47" s="11">
         <v>12600</v>
       </c>
+      <c r="JJ47" s="11">
+        <v>13100</v>
+      </c>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>60</v>
       </c>
@@ -34775,8 +34895,11 @@
       <c r="JI48" s="11">
         <v>17700</v>
       </c>
+      <c r="JJ48" s="11">
+        <v>17700</v>
+      </c>
     </row>
-    <row r="49" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>62</v>
       </c>
@@ -35582,8 +35705,11 @@
       <c r="JI49" s="11">
         <v>15800</v>
       </c>
+      <c r="JJ49" s="11">
+        <v>15800</v>
+      </c>
     </row>
-    <row r="50" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>63</v>
       </c>
@@ -36387,10 +36513,13 @@
         <v>6400</v>
       </c>
       <c r="JI50" s="11">
-        <v>6500</v>
+        <v>6400</v>
+      </c>
+      <c r="JJ50" s="11">
+        <v>6300</v>
       </c>
     </row>
-    <row r="51" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>66</v>
       </c>
@@ -37194,10 +37323,13 @@
         <v>110600</v>
       </c>
       <c r="JI51" s="11">
-        <v>110300</v>
+        <v>110500</v>
+      </c>
+      <c r="JJ51" s="11">
+        <v>111800</v>
       </c>
     </row>
-    <row r="52" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>67</v>
       </c>
@@ -38003,8 +38135,11 @@
       <c r="JI52" s="11">
         <v>37600</v>
       </c>
+      <c r="JJ52" s="11">
+        <v>37800</v>
+      </c>
     </row>
-    <row r="53" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>71</v>
       </c>
@@ -38810,8 +38945,11 @@
       <c r="JI53" s="11">
         <v>4700</v>
       </c>
+      <c r="JJ53" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="54" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>74</v>
       </c>
@@ -39615,10 +39753,13 @@
         <v>37500</v>
       </c>
       <c r="JI54" s="11">
-        <v>37100</v>
+        <v>37300</v>
+      </c>
+      <c r="JJ54" s="11">
+        <v>38300</v>
       </c>
     </row>
-    <row r="55" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>75</v>
       </c>
@@ -40422,10 +40563,13 @@
         <v>22700</v>
       </c>
       <c r="JI55" s="11">
-        <v>22500</v>
+        <v>22600</v>
+      </c>
+      <c r="JJ55" s="11">
+        <v>23000</v>
       </c>
     </row>
-    <row r="56" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>76</v>
       </c>
@@ -41229,10 +41373,13 @@
         <v>13300</v>
       </c>
       <c r="JI56" s="11">
-        <v>13000</v>
+        <v>13200</v>
+      </c>
+      <c r="JJ56" s="11">
+        <v>13100</v>
       </c>
     </row>
-    <row r="57" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>79</v>
       </c>
@@ -42036,10 +42183,13 @@
         <v>14800</v>
       </c>
       <c r="JI57" s="11">
-        <v>14600</v>
+        <v>14700</v>
+      </c>
+      <c r="JJ57" s="11">
+        <v>15300</v>
       </c>
     </row>
-    <row r="58" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>80</v>
       </c>
@@ -42845,8 +42995,11 @@
       <c r="JI58" s="11">
         <v>12700</v>
       </c>
+      <c r="JJ58" s="11">
+        <v>13300</v>
+      </c>
     </row>
-    <row r="59" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>82</v>
       </c>
@@ -43650,10 +43803,13 @@
         <v>244200</v>
       </c>
       <c r="JI59" s="11">
-        <v>246000</v>
+        <v>246300</v>
+      </c>
+      <c r="JJ59" s="11">
+        <v>250800</v>
       </c>
     </row>
-    <row r="60" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>83</v>
       </c>
@@ -44457,10 +44613,13 @@
         <v>169400</v>
       </c>
       <c r="JI60" s="11">
-        <v>170000</v>
+        <v>170500</v>
+      </c>
+      <c r="JJ60" s="11">
+        <v>173200</v>
       </c>
     </row>
-    <row r="61" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>86</v>
       </c>
@@ -45264,10 +45423,13 @@
         <v>19600</v>
       </c>
       <c r="JI61" s="11">
-        <v>19800</v>
+        <v>19900</v>
+      </c>
+      <c r="JJ61" s="11">
+        <v>20100</v>
       </c>
     </row>
-    <row r="62" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>87</v>
       </c>
@@ -46071,10 +46233,13 @@
         <v>90900</v>
       </c>
       <c r="JI62" s="11">
-        <v>91200</v>
+        <v>91300</v>
+      </c>
+      <c r="JJ62" s="11">
+        <v>91900</v>
       </c>
     </row>
-    <row r="63" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>88</v>
       </c>
@@ -46878,10 +47043,13 @@
         <v>27300</v>
       </c>
       <c r="JI63" s="11">
-        <v>27500</v>
+        <v>27100</v>
+      </c>
+      <c r="JJ63" s="11">
+        <v>27600</v>
       </c>
     </row>
-    <row r="64" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>90</v>
       </c>
@@ -47687,8 +47855,11 @@
       <c r="JI64" s="11">
         <v>14800</v>
       </c>
+      <c r="JJ64" s="11">
+        <v>14800</v>
+      </c>
     </row>
-    <row r="65" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>91</v>
       </c>
@@ -48492,10 +48663,13 @@
         <v>60000</v>
       </c>
       <c r="JI65" s="11">
-        <v>61200</v>
+        <v>61000</v>
+      </c>
+      <c r="JJ65" s="11">
+        <v>62800</v>
       </c>
     </row>
-    <row r="66" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>92</v>
       </c>
@@ -49299,10 +49473,13 @@
         <v>57300</v>
       </c>
       <c r="JI66" s="11">
-        <v>58500</v>
+        <v>58300</v>
+      </c>
+      <c r="JJ66" s="11">
+        <v>60200</v>
       </c>
     </row>
-    <row r="67" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>93</v>
       </c>
@@ -50106,10 +50283,13 @@
         <v>22000</v>
       </c>
       <c r="JI67" s="11">
-        <v>22400</v>
+        <v>22500</v>
+      </c>
+      <c r="JJ67" s="11">
+        <v>23600</v>
       </c>
     </row>
-    <row r="68" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>99</v>
       </c>
@@ -50913,10 +51093,13 @@
         <v>173800</v>
       </c>
       <c r="JI68" s="11">
-        <v>173300</v>
+        <v>173400</v>
+      </c>
+      <c r="JJ68" s="11">
+        <v>179100</v>
       </c>
     </row>
-    <row r="69" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>100</v>
       </c>
@@ -51722,8 +51905,11 @@
       <c r="JI69" s="11">
         <v>39400</v>
       </c>
+      <c r="JJ69" s="11">
+        <v>42500</v>
+      </c>
     </row>
-    <row r="70" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>101</v>
       </c>
@@ -52529,8 +52715,11 @@
       <c r="JI70" s="11">
         <v>25500</v>
       </c>
+      <c r="JJ70" s="11">
+        <v>28500</v>
+      </c>
     </row>
-    <row r="71" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>103</v>
       </c>
@@ -53334,10 +53523,13 @@
         <v>134500</v>
       </c>
       <c r="JI71" s="11">
-        <v>133900</v>
+        <v>134000</v>
+      </c>
+      <c r="JJ71" s="11">
+        <v>136600</v>
       </c>
     </row>
-    <row r="72" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>104</v>
       </c>
@@ -54141,10 +54333,13 @@
         <v>48900</v>
       </c>
       <c r="JI72" s="11">
-        <v>48000</v>
+        <v>48100</v>
+      </c>
+      <c r="JJ72" s="11">
+        <v>49800</v>
       </c>
     </row>
-    <row r="73" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>107</v>
       </c>
@@ -54950,8 +55145,11 @@
       <c r="JI73" s="11">
         <v>30700</v>
       </c>
+      <c r="JJ73" s="11">
+        <v>30500</v>
+      </c>
     </row>
-    <row r="74" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>108</v>
       </c>
@@ -55757,8 +55955,11 @@
       <c r="JI74" s="11">
         <v>12300</v>
       </c>
+      <c r="JJ74" s="11">
+        <v>12400</v>
+      </c>
     </row>
-    <row r="75" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>109</v>
       </c>
@@ -56564,8 +56765,11 @@
       <c r="JI75" s="11">
         <v>42900</v>
       </c>
+      <c r="JJ75" s="11">
+        <v>43900</v>
+      </c>
     </row>
-    <row r="76" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>110</v>
       </c>
@@ -57369,10 +57573,13 @@
         <v>77600</v>
       </c>
       <c r="JI76" s="11">
-        <v>79400</v>
+        <v>78700</v>
+      </c>
+      <c r="JJ76" s="11">
+        <v>80100</v>
       </c>
     </row>
-    <row r="77" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>112</v>
       </c>
@@ -58176,10 +58383,13 @@
         <v>62600</v>
       </c>
       <c r="JI77" s="11">
-        <v>64000</v>
+        <v>63200</v>
+      </c>
+      <c r="JJ77" s="11">
+        <v>64300</v>
       </c>
     </row>
-    <row r="78" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>113</v>
       </c>
@@ -58983,10 +59193,13 @@
         <v>6400</v>
       </c>
       <c r="JI78" s="11">
-        <v>6400</v>
+        <v>6500</v>
+      </c>
+      <c r="JJ78" s="11">
+        <v>6600</v>
       </c>
     </row>
-    <row r="79" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>114</v>
       </c>
@@ -59790,10 +60003,13 @@
         <v>56200</v>
       </c>
       <c r="JI79" s="11">
-        <v>57600</v>
+        <v>56700</v>
+      </c>
+      <c r="JJ79" s="11">
+        <v>57700</v>
       </c>
     </row>
-    <row r="80" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>115</v>
       </c>
@@ -60237,10 +60453,13 @@
         <v>50700</v>
       </c>
       <c r="JI80" s="11">
-        <v>50800</v>
+        <v>51300</v>
+      </c>
+      <c r="JJ80" s="11">
+        <v>52500</v>
       </c>
     </row>
-    <row r="81" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>118</v>
       </c>
@@ -61044,10 +61263,13 @@
         <v>25300</v>
       </c>
       <c r="JI81" s="11">
-        <v>24900</v>
+        <v>25000</v>
+      </c>
+      <c r="JJ81" s="11">
+        <v>23400</v>
       </c>
     </row>
-    <row r="82" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>121</v>
       </c>
@@ -61853,8 +62075,11 @@
       <c r="JI82" s="11">
         <v>89300</v>
       </c>
+      <c r="JJ82" s="11">
+        <v>92300</v>
+      </c>
     </row>
-    <row r="83" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>122</v>
       </c>
@@ -62660,8 +62885,11 @@
       <c r="JI83" s="11">
         <v>10300</v>
       </c>
+      <c r="JJ83" s="11">
+        <v>10300</v>
+      </c>
     </row>
-    <row r="84" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>124</v>
       </c>
@@ -63467,8 +63695,11 @@
       <c r="JI84" s="11">
         <v>700</v>
       </c>
+      <c r="JJ84" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="85" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>125</v>
       </c>
@@ -64274,8 +64505,11 @@
       <c r="JI85" s="11">
         <v>79000</v>
       </c>
+      <c r="JJ85" s="11">
+        <v>82000</v>
+      </c>
     </row>
-    <row r="86" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>126</v>
       </c>
@@ -65081,8 +65315,11 @@
       <c r="JI86" s="11">
         <v>6900</v>
       </c>
+      <c r="JJ86" s="11">
+        <v>7200</v>
+      </c>
     </row>
-    <row r="87" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>127</v>
       </c>
@@ -65888,8 +66125,11 @@
       <c r="JI87" s="11">
         <v>4800</v>
       </c>
+      <c r="JJ87" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="88" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>128</v>
       </c>
@@ -66695,8 +66935,11 @@
       <c r="JI88" s="11">
         <v>2100</v>
       </c>
+      <c r="JJ88" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="89" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>129</v>
       </c>
@@ -67502,8 +67745,11 @@
       <c r="JI89" s="11">
         <v>72100</v>
       </c>
+      <c r="JJ89" s="11">
+        <v>74800</v>
+      </c>
     </row>
-    <row r="90" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>130</v>
       </c>
@@ -68309,8 +68555,11 @@
       <c r="JI90" s="11">
         <v>31700</v>
       </c>
+      <c r="JJ90" s="11">
+        <v>34800</v>
+      </c>
     </row>
-    <row r="91" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>131</v>
       </c>
@@ -69116,8 +69365,11 @@
       <c r="JI91" s="11">
         <v>40400</v>
       </c>
+      <c r="JJ91" s="11">
+        <v>40000</v>
+      </c>
     </row>
-    <row r="92" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>132</v>
       </c>
@@ -69923,8 +70175,11 @@
       <c r="JI92" s="11">
         <v>22500</v>
       </c>
+      <c r="JJ92" s="11">
+        <v>22100</v>
+      </c>
     </row>
-    <row r="93" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>133</v>
       </c>
@@ -70730,8 +70985,11 @@
       <c r="JI93" s="11">
         <v>13100</v>
       </c>
+      <c r="JJ93" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="94" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>134</v>
       </c>
@@ -71537,8 +71795,11 @@
       <c r="JI94" s="11">
         <v>4800</v>
       </c>
+      <c r="JJ94" s="11">
+        <v>4900</v>
+      </c>
     </row>
-    <row r="96" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>192</v>
       </c>

--- a/lowe/edd/data/SJOS$HWS.xlsx
+++ b/lowe/edd/data/SJOS$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,13 +488,13 @@
     <t>70-720000</t>
   </si>
   <si>
-    <t xml:space="preserve">          Accommodation &amp; Food Services</t>
+    <t xml:space="preserve">        Accommodation &amp; Food Services</t>
   </si>
   <si>
     <t>70-721000</t>
   </si>
   <si>
-    <t xml:space="preserve">            Accommodation</t>
+    <t xml:space="preserve">          Accommodation</t>
   </si>
   <si>
     <t>70-722000</t>
@@ -1619,7 +1619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ103"/>
+  <dimension ref="A1:JL103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1636,12 +1636,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1669,12 +1669,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1687,7 +1687,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2495,11 +2495,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3308,8 +3314,14 @@
       <c r="JJ9" s="11">
         <v>1066300</v>
       </c>
+      <c r="JK9" s="11">
+        <v>1071200</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>1074400</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -4116,10 +4128,16 @@
         <v>1016500</v>
       </c>
       <c r="JJ10" s="11">
-        <v>1026200</v>
+        <v>1026300</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>1036800</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>1042500</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4926,10 +4944,16 @@
         <v>42000</v>
       </c>
       <c r="JJ11" s="11">
-        <v>40100</v>
+        <v>40000</v>
+      </c>
+      <c r="JK11" s="11">
+        <v>34400</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>31900</v>
       </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5738,8 +5762,14 @@
       <c r="JJ12" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>0.03</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6548,8 +6578,14 @@
       <c r="JJ13" s="11">
         <v>1127200</v>
       </c>
+      <c r="JK13" s="11">
+        <v>1133500</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>1138600</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7356,10 +7392,16 @@
         <v>5600</v>
       </c>
       <c r="JJ14" s="11">
-        <v>5800</v>
+        <v>5600</v>
+      </c>
+      <c r="JK14" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>3600</v>
       </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -8166,10 +8208,16 @@
         <v>1104300</v>
       </c>
       <c r="JJ15" s="11">
-        <v>1121400</v>
+        <v>1121600</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>1128900</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>1135000</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8976,10 +9024,16 @@
         <v>1015000</v>
       </c>
       <c r="JJ16" s="11">
-        <v>1029100</v>
+        <v>1029200</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>1035800</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>1041900</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9786,10 +9840,16 @@
         <v>224800</v>
       </c>
       <c r="JJ17" s="11">
-        <v>225500</v>
+        <v>225200</v>
+      </c>
+      <c r="JK17" s="11">
+        <v>225800</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>226700</v>
       </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10596,10 +10656,16 @@
         <v>50800</v>
       </c>
       <c r="JJ18" s="11">
-        <v>51600</v>
+        <v>51500</v>
+      </c>
+      <c r="JK18" s="11">
+        <v>51500</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>52000</v>
       </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11408,8 +11474,14 @@
       <c r="JJ19" s="11">
         <v>200</v>
       </c>
+      <c r="JK19" s="11">
+        <v>200</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -12216,10 +12288,16 @@
         <v>50600</v>
       </c>
       <c r="JJ20" s="11">
-        <v>51400</v>
+        <v>51300</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>51300</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>51800</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -13026,10 +13104,16 @@
         <v>37600</v>
       </c>
       <c r="JJ21" s="11">
-        <v>37700</v>
+        <v>37600</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>37600</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>38100</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -13836,10 +13920,16 @@
         <v>17800</v>
       </c>
       <c r="JJ22" s="11">
-        <v>17800</v>
+        <v>17700</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>17700</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>18100</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -14646,10 +14736,16 @@
         <v>174000</v>
       </c>
       <c r="JJ23" s="11">
-        <v>173900</v>
+        <v>173700</v>
+      </c>
+      <c r="JK23" s="11">
+        <v>174300</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>174700</v>
       </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -15456,10 +15552,16 @@
         <v>162200</v>
       </c>
       <c r="JJ24" s="11">
-        <v>162500</v>
+        <v>162300</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>163000</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>163500</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -16266,10 +16368,16 @@
         <v>11100</v>
       </c>
       <c r="JJ25" s="11">
-        <v>11100</v>
+        <v>11200</v>
+      </c>
+      <c r="JK25" s="11">
+        <v>11200</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>11200</v>
       </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>27</v>
       </c>
@@ -17078,8 +17186,14 @@
       <c r="JJ26" s="11">
         <v>123100</v>
       </c>
+      <c r="JK26" s="11">
+        <v>123500</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>124300</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>28</v>
       </c>
@@ -17886,10 +18000,16 @@
         <v>59300</v>
       </c>
       <c r="JJ27" s="11">
-        <v>59900</v>
+        <v>59600</v>
+      </c>
+      <c r="JK27" s="11">
+        <v>59800</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>59800</v>
       </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>29</v>
       </c>
@@ -18696,10 +18816,16 @@
         <v>57200</v>
       </c>
       <c r="JJ28" s="11">
-        <v>57800</v>
+        <v>57600</v>
+      </c>
+      <c r="JK28" s="11">
+        <v>57500</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>57900</v>
       </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>31</v>
       </c>
@@ -19508,8 +19634,14 @@
       <c r="JJ29" s="11">
         <v>38400</v>
       </c>
+      <c r="JK29" s="11">
+        <v>38500</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>38600</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>32</v>
       </c>
@@ -20318,8 +20450,14 @@
       <c r="JJ30" s="11">
         <v>3400</v>
       </c>
+      <c r="JK30" s="11">
+        <v>3500</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -21128,8 +21266,14 @@
       <c r="JJ31" s="11">
         <v>26400</v>
       </c>
+      <c r="JK31" s="11">
+        <v>26400</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>26600</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>35</v>
       </c>
@@ -21936,10 +22080,16 @@
         <v>16200</v>
       </c>
       <c r="JJ32" s="11">
+        <v>16300</v>
+      </c>
+      <c r="JK32" s="11">
         <v>16400</v>
       </c>
+      <c r="JL32" s="11">
+        <v>16600</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>38</v>
       </c>
@@ -22748,8 +22898,14 @@
       <c r="JJ33" s="11">
         <v>5300</v>
       </c>
+      <c r="JK33" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>5300</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>39</v>
       </c>
@@ -23558,8 +23714,14 @@
       <c r="JJ34" s="11">
         <v>4100</v>
       </c>
+      <c r="JK34" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>42</v>
       </c>
@@ -24368,8 +24530,14 @@
       <c r="JJ35" s="11">
         <v>11400</v>
       </c>
+      <c r="JK35" s="11">
+        <v>11300</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>11200</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>46</v>
       </c>
@@ -25176,10 +25344,16 @@
         <v>879500</v>
       </c>
       <c r="JJ36" s="11">
-        <v>895900</v>
+        <v>896400</v>
+      </c>
+      <c r="JK36" s="11">
+        <v>903100</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>908300</v>
       </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>47</v>
       </c>
@@ -25986,10 +26160,16 @@
         <v>790200</v>
       </c>
       <c r="JJ37" s="11">
-        <v>803600</v>
+        <v>804000</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>810000</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>815200</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>48</v>
       </c>
@@ -26796,10 +26976,16 @@
         <v>119000</v>
       </c>
       <c r="JJ38" s="11">
-        <v>120100</v>
+        <v>120200</v>
+      </c>
+      <c r="JK38" s="11">
+        <v>123700</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>125600</v>
       </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>49</v>
       </c>
@@ -27608,8 +27794,14 @@
       <c r="JJ39" s="11">
         <v>28700</v>
       </c>
+      <c r="JK39" s="11">
+        <v>28900</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>29100</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>50</v>
       </c>
@@ -28416,10 +28608,16 @@
         <v>21200</v>
       </c>
       <c r="JJ40" s="11">
-        <v>21400</v>
+        <v>21300</v>
+      </c>
+      <c r="JK40" s="11">
+        <v>21500</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>21500</v>
       </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>52</v>
       </c>
@@ -29226,10 +29424,16 @@
         <v>72700</v>
       </c>
       <c r="JJ41" s="11">
-        <v>73700</v>
+        <v>73600</v>
+      </c>
+      <c r="JK41" s="11">
+        <v>75800</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>76500</v>
       </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>53</v>
       </c>
@@ -30036,10 +30240,16 @@
         <v>3600</v>
       </c>
       <c r="JJ42" s="11">
-        <v>3600</v>
+        <v>3700</v>
+      </c>
+      <c r="JK42" s="11">
+        <v>3700</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>3800</v>
       </c>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>54</v>
       </c>
@@ -30848,8 +31058,14 @@
       <c r="JJ43" s="11">
         <v>5600</v>
       </c>
+      <c r="JK43" s="11">
+        <v>5600</v>
+      </c>
+      <c r="JL43" s="11">
+        <v>5800</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>55</v>
       </c>
@@ -31656,10 +31872,16 @@
         <v>16600</v>
       </c>
       <c r="JJ44" s="11">
-        <v>16200</v>
+        <v>16300</v>
+      </c>
+      <c r="JK44" s="11">
+        <v>16500</v>
+      </c>
+      <c r="JL44" s="11">
+        <v>16800</v>
       </c>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>56</v>
       </c>
@@ -32468,8 +32690,14 @@
       <c r="JJ45" s="11">
         <v>4400</v>
       </c>
+      <c r="JK45" s="11">
+        <v>4600</v>
+      </c>
+      <c r="JL45" s="11">
+        <v>4600</v>
+      </c>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>57</v>
       </c>
@@ -33278,8 +33506,14 @@
       <c r="JJ46" s="11">
         <v>8400</v>
       </c>
+      <c r="JK46" s="11">
+        <v>9000</v>
+      </c>
+      <c r="JL46" s="11">
+        <v>9200</v>
+      </c>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>58</v>
       </c>
@@ -34088,8 +34322,14 @@
       <c r="JJ47" s="11">
         <v>13100</v>
       </c>
+      <c r="JK47" s="11">
+        <v>14100</v>
+      </c>
+      <c r="JL47" s="11">
+        <v>14500</v>
+      </c>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>60</v>
       </c>
@@ -34896,10 +35136,16 @@
         <v>17700</v>
       </c>
       <c r="JJ48" s="11">
-        <v>17700</v>
+        <v>17900</v>
+      </c>
+      <c r="JK48" s="11">
+        <v>19000</v>
+      </c>
+      <c r="JL48" s="11">
+        <v>20000</v>
       </c>
     </row>
-    <row r="49" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>62</v>
       </c>
@@ -35706,10 +35952,16 @@
         <v>15800</v>
       </c>
       <c r="JJ49" s="11">
-        <v>15800</v>
+        <v>15900</v>
+      </c>
+      <c r="JK49" s="11">
+        <v>17000</v>
+      </c>
+      <c r="JL49" s="11">
+        <v>17900</v>
       </c>
     </row>
-    <row r="50" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>63</v>
       </c>
@@ -36518,8 +36770,14 @@
       <c r="JJ50" s="11">
         <v>6300</v>
       </c>
+      <c r="JK50" s="11">
+        <v>6700</v>
+      </c>
+      <c r="JL50" s="11">
+        <v>7700</v>
+      </c>
     </row>
-    <row r="51" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>66</v>
       </c>
@@ -37328,8 +37586,14 @@
       <c r="JJ51" s="11">
         <v>111800</v>
       </c>
+      <c r="JK51" s="11">
+        <v>111100</v>
+      </c>
+      <c r="JL51" s="11">
+        <v>112700</v>
+      </c>
     </row>
-    <row r="52" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>67</v>
       </c>
@@ -38138,8 +38402,14 @@
       <c r="JJ52" s="11">
         <v>37800</v>
       </c>
+      <c r="JK52" s="11">
+        <v>37600</v>
+      </c>
+      <c r="JL52" s="11">
+        <v>38000</v>
+      </c>
     </row>
-    <row r="53" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>71</v>
       </c>
@@ -38948,8 +39218,14 @@
       <c r="JJ53" s="11">
         <v>4700</v>
       </c>
+      <c r="JK53" s="11">
+        <v>4700</v>
+      </c>
+      <c r="JL53" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="54" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>74</v>
       </c>
@@ -39756,10 +40032,16 @@
         <v>37300</v>
       </c>
       <c r="JJ54" s="11">
-        <v>38300</v>
+        <v>38100</v>
+      </c>
+      <c r="JK54" s="11">
+        <v>37200</v>
+      </c>
+      <c r="JL54" s="11">
+        <v>36400</v>
       </c>
     </row>
-    <row r="55" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>75</v>
       </c>
@@ -40566,10 +40848,16 @@
         <v>22600</v>
       </c>
       <c r="JJ55" s="11">
-        <v>23000</v>
+        <v>22900</v>
+      </c>
+      <c r="JK55" s="11">
+        <v>22400</v>
+      </c>
+      <c r="JL55" s="11">
+        <v>21900</v>
       </c>
     </row>
-    <row r="56" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>76</v>
       </c>
@@ -41376,10 +41664,16 @@
         <v>13200</v>
       </c>
       <c r="JJ56" s="11">
-        <v>13100</v>
+        <v>13300</v>
+      </c>
+      <c r="JK56" s="11">
+        <v>13200</v>
+      </c>
+      <c r="JL56" s="11">
+        <v>13200</v>
       </c>
     </row>
-    <row r="57" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>79</v>
       </c>
@@ -42186,10 +42480,16 @@
         <v>14700</v>
       </c>
       <c r="JJ57" s="11">
-        <v>15300</v>
+        <v>15200</v>
+      </c>
+      <c r="JK57" s="11">
+        <v>14800</v>
+      </c>
+      <c r="JL57" s="11">
+        <v>14500</v>
       </c>
     </row>
-    <row r="58" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>80</v>
       </c>
@@ -42996,10 +43296,16 @@
         <v>12700</v>
       </c>
       <c r="JJ58" s="11">
-        <v>13300</v>
+        <v>13100</v>
+      </c>
+      <c r="JK58" s="11">
+        <v>12700</v>
+      </c>
+      <c r="JL58" s="11">
+        <v>12500</v>
       </c>
     </row>
-    <row r="59" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>82</v>
       </c>
@@ -43806,10 +44112,16 @@
         <v>246300</v>
       </c>
       <c r="JJ59" s="11">
-        <v>250800</v>
+        <v>250400</v>
+      </c>
+      <c r="JK59" s="11">
+        <v>252500</v>
+      </c>
+      <c r="JL59" s="11">
+        <v>252200</v>
       </c>
     </row>
-    <row r="60" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>83</v>
       </c>
@@ -44616,10 +44928,16 @@
         <v>170500</v>
       </c>
       <c r="JJ60" s="11">
-        <v>173200</v>
+        <v>172900</v>
+      </c>
+      <c r="JK60" s="11">
+        <v>175300</v>
+      </c>
+      <c r="JL60" s="11">
+        <v>175700</v>
       </c>
     </row>
-    <row r="61" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>86</v>
       </c>
@@ -45426,10 +45744,16 @@
         <v>19900</v>
       </c>
       <c r="JJ61" s="11">
-        <v>20100</v>
+        <v>20300</v>
+      </c>
+      <c r="JK61" s="11">
+        <v>20600</v>
+      </c>
+      <c r="JL61" s="11">
+        <v>20700</v>
       </c>
     </row>
-    <row r="62" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>87</v>
       </c>
@@ -46236,10 +46560,16 @@
         <v>91300</v>
       </c>
       <c r="JJ62" s="11">
-        <v>91900</v>
+        <v>92300</v>
+      </c>
+      <c r="JK62" s="11">
+        <v>93200</v>
+      </c>
+      <c r="JL62" s="11">
+        <v>93300</v>
       </c>
     </row>
-    <row r="63" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>88</v>
       </c>
@@ -47048,8 +47378,14 @@
       <c r="JJ63" s="11">
         <v>27600</v>
       </c>
+      <c r="JK63" s="11">
+        <v>28000</v>
+      </c>
+      <c r="JL63" s="11">
+        <v>28200</v>
+      </c>
     </row>
-    <row r="64" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>90</v>
       </c>
@@ -47858,8 +48194,14 @@
       <c r="JJ64" s="11">
         <v>14800</v>
       </c>
+      <c r="JK64" s="11">
+        <v>14900</v>
+      </c>
+      <c r="JL64" s="11">
+        <v>14900</v>
+      </c>
     </row>
-    <row r="65" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>91</v>
       </c>
@@ -48666,10 +49008,16 @@
         <v>61000</v>
       </c>
       <c r="JJ65" s="11">
-        <v>62800</v>
+        <v>62700</v>
+      </c>
+      <c r="JK65" s="11">
+        <v>62300</v>
+      </c>
+      <c r="JL65" s="11">
+        <v>61600</v>
       </c>
     </row>
-    <row r="66" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>92</v>
       </c>
@@ -49476,10 +49824,16 @@
         <v>58300</v>
       </c>
       <c r="JJ66" s="11">
-        <v>60200</v>
+        <v>60100</v>
+      </c>
+      <c r="JK66" s="11">
+        <v>59700</v>
+      </c>
+      <c r="JL66" s="11">
+        <v>59000</v>
       </c>
     </row>
-    <row r="67" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>93</v>
       </c>
@@ -50286,10 +50640,16 @@
         <v>22500</v>
       </c>
       <c r="JJ67" s="11">
-        <v>23600</v>
+        <v>23800</v>
+      </c>
+      <c r="JK67" s="11">
+        <v>23900</v>
+      </c>
+      <c r="JL67" s="11">
+        <v>24100</v>
       </c>
     </row>
-    <row r="68" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>99</v>
       </c>
@@ -51096,10 +51456,16 @@
         <v>173400</v>
       </c>
       <c r="JJ68" s="11">
-        <v>179100</v>
+        <v>179000</v>
+      </c>
+      <c r="JK68" s="11">
+        <v>179500</v>
+      </c>
+      <c r="JL68" s="11">
+        <v>180700</v>
       </c>
     </row>
-    <row r="69" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>100</v>
       </c>
@@ -51908,8 +52274,14 @@
       <c r="JJ69" s="11">
         <v>42500</v>
       </c>
+      <c r="JK69" s="11">
+        <v>43100</v>
+      </c>
+      <c r="JL69" s="11">
+        <v>42400</v>
+      </c>
     </row>
-    <row r="70" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>101</v>
       </c>
@@ -52716,10 +53088,16 @@
         <v>25500</v>
       </c>
       <c r="JJ70" s="11">
-        <v>28500</v>
+        <v>28300</v>
+      </c>
+      <c r="JK70" s="11">
+        <v>28800</v>
+      </c>
+      <c r="JL70" s="11">
+        <v>28400</v>
       </c>
     </row>
-    <row r="71" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>103</v>
       </c>
@@ -53526,10 +53904,16 @@
         <v>134000</v>
       </c>
       <c r="JJ71" s="11">
-        <v>136600</v>
+        <v>136500</v>
+      </c>
+      <c r="JK71" s="11">
+        <v>136400</v>
+      </c>
+      <c r="JL71" s="11">
+        <v>138300</v>
       </c>
     </row>
-    <row r="72" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>104</v>
       </c>
@@ -54336,10 +54720,16 @@
         <v>48100</v>
       </c>
       <c r="JJ72" s="11">
-        <v>49800</v>
+        <v>50400</v>
+      </c>
+      <c r="JK72" s="11">
+        <v>50100</v>
+      </c>
+      <c r="JL72" s="11">
+        <v>50900</v>
       </c>
     </row>
-    <row r="73" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>107</v>
       </c>
@@ -55146,10 +55536,16 @@
         <v>30700</v>
       </c>
       <c r="JJ73" s="11">
-        <v>30500</v>
+        <v>30600</v>
+      </c>
+      <c r="JK73" s="11">
+        <v>30700</v>
+      </c>
+      <c r="JL73" s="11">
+        <v>31200</v>
       </c>
     </row>
-    <row r="74" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>108</v>
       </c>
@@ -55956,10 +56352,16 @@
         <v>12300</v>
       </c>
       <c r="JJ74" s="11">
-        <v>12400</v>
+        <v>12300</v>
+      </c>
+      <c r="JK74" s="11">
+        <v>12300</v>
+      </c>
+      <c r="JL74" s="11">
+        <v>12200</v>
       </c>
     </row>
-    <row r="75" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>109</v>
       </c>
@@ -56766,10 +57168,16 @@
         <v>42900</v>
       </c>
       <c r="JJ75" s="11">
-        <v>43900</v>
+        <v>43200</v>
+      </c>
+      <c r="JK75" s="11">
+        <v>43300</v>
+      </c>
+      <c r="JL75" s="11">
+        <v>44000</v>
       </c>
     </row>
-    <row r="76" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>110</v>
       </c>
@@ -57578,8 +57986,14 @@
       <c r="JJ76" s="11">
         <v>80100</v>
       </c>
+      <c r="JK76" s="11">
+        <v>81700</v>
+      </c>
+      <c r="JL76" s="11">
+        <v>82900</v>
+      </c>
     </row>
-    <row r="77" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>112</v>
       </c>
@@ -58386,10 +58800,16 @@
         <v>63200</v>
       </c>
       <c r="JJ77" s="11">
-        <v>64300</v>
+        <v>64500</v>
+      </c>
+      <c r="JK77" s="11">
+        <v>65100</v>
+      </c>
+      <c r="JL77" s="11">
+        <v>66000</v>
       </c>
     </row>
-    <row r="78" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>113</v>
       </c>
@@ -59198,8 +59618,14 @@
       <c r="JJ78" s="11">
         <v>6600</v>
       </c>
+      <c r="JK78" s="11">
+        <v>6700</v>
+      </c>
+      <c r="JL78" s="11">
+        <v>6800</v>
+      </c>
     </row>
-    <row r="79" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>114</v>
       </c>
@@ -60006,10 +60432,16 @@
         <v>56700</v>
       </c>
       <c r="JJ79" s="11">
-        <v>57700</v>
+        <v>57900</v>
+      </c>
+      <c r="JK79" s="11">
+        <v>58400</v>
+      </c>
+      <c r="JL79" s="11">
+        <v>59200</v>
       </c>
     </row>
-    <row r="80" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>115</v>
       </c>
@@ -60456,10 +60888,16 @@
         <v>51300</v>
       </c>
       <c r="JJ80" s="11">
-        <v>52500</v>
+        <v>52700</v>
+      </c>
+      <c r="JK80" s="11">
+        <v>53200</v>
+      </c>
+      <c r="JL80" s="11">
+        <v>53800</v>
       </c>
     </row>
-    <row r="81" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>118</v>
       </c>
@@ -61266,10 +61704,16 @@
         <v>25000</v>
       </c>
       <c r="JJ81" s="11">
-        <v>23400</v>
+        <v>24400</v>
+      </c>
+      <c r="JK81" s="11">
+        <v>24300</v>
+      </c>
+      <c r="JL81" s="11">
+        <v>24700</v>
       </c>
     </row>
-    <row r="82" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>121</v>
       </c>
@@ -62076,10 +62520,16 @@
         <v>89300</v>
       </c>
       <c r="JJ82" s="11">
-        <v>92300</v>
+        <v>92400</v>
+      </c>
+      <c r="JK82" s="11">
+        <v>93100</v>
+      </c>
+      <c r="JL82" s="11">
+        <v>93100</v>
       </c>
     </row>
-    <row r="83" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>122</v>
       </c>
@@ -62888,8 +63338,14 @@
       <c r="JJ83" s="11">
         <v>10300</v>
       </c>
+      <c r="JK83" s="11">
+        <v>10400</v>
+      </c>
+      <c r="JL83" s="11">
+        <v>10400</v>
+      </c>
     </row>
-    <row r="84" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>124</v>
       </c>
@@ -63698,8 +64154,14 @@
       <c r="JJ84" s="11">
         <v>700</v>
       </c>
+      <c r="JK84" s="11">
+        <v>700</v>
+      </c>
+      <c r="JL84" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="85" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>125</v>
       </c>
@@ -64506,10 +64968,16 @@
         <v>79000</v>
       </c>
       <c r="JJ85" s="11">
-        <v>82000</v>
+        <v>82100</v>
+      </c>
+      <c r="JK85" s="11">
+        <v>82700</v>
+      </c>
+      <c r="JL85" s="11">
+        <v>82700</v>
       </c>
     </row>
-    <row r="86" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>126</v>
       </c>
@@ -65316,10 +65784,16 @@
         <v>6900</v>
       </c>
       <c r="JJ86" s="11">
-        <v>7200</v>
+        <v>7300</v>
+      </c>
+      <c r="JK86" s="11">
+        <v>7400</v>
+      </c>
+      <c r="JL86" s="11">
+        <v>7500</v>
       </c>
     </row>
-    <row r="87" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>127</v>
       </c>
@@ -66126,10 +66600,16 @@
         <v>4800</v>
       </c>
       <c r="JJ87" s="11">
-        <v>5100</v>
+        <v>5200</v>
+      </c>
+      <c r="JK87" s="11">
+        <v>5400</v>
+      </c>
+      <c r="JL87" s="11">
+        <v>5500</v>
       </c>
     </row>
-    <row r="88" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>128</v>
       </c>
@@ -66938,8 +67418,14 @@
       <c r="JJ88" s="11">
         <v>2100</v>
       </c>
+      <c r="JK88" s="11">
+        <v>2000</v>
+      </c>
+      <c r="JL88" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="89" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>129</v>
       </c>
@@ -67748,8 +68234,14 @@
       <c r="JJ89" s="11">
         <v>74800</v>
       </c>
+      <c r="JK89" s="11">
+        <v>75300</v>
+      </c>
+      <c r="JL89" s="11">
+        <v>75200</v>
+      </c>
     </row>
-    <row r="90" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>130</v>
       </c>
@@ -68558,8 +69050,14 @@
       <c r="JJ90" s="11">
         <v>34800</v>
       </c>
+      <c r="JK90" s="11">
+        <v>35100</v>
+      </c>
+      <c r="JL90" s="11">
+        <v>35100</v>
+      </c>
     </row>
-    <row r="91" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>131</v>
       </c>
@@ -69368,8 +69866,14 @@
       <c r="JJ91" s="11">
         <v>40000</v>
       </c>
+      <c r="JK91" s="11">
+        <v>40200</v>
+      </c>
+      <c r="JL91" s="11">
+        <v>40100</v>
+      </c>
     </row>
-    <row r="92" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>132</v>
       </c>
@@ -70178,8 +70682,14 @@
       <c r="JJ92" s="11">
         <v>22100</v>
       </c>
+      <c r="JK92" s="11">
+        <v>22300</v>
+      </c>
+      <c r="JL92" s="11">
+        <v>22300</v>
+      </c>
     </row>
-    <row r="93" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>133</v>
       </c>
@@ -70988,8 +71498,14 @@
       <c r="JJ93" s="11">
         <v>13000</v>
       </c>
+      <c r="JK93" s="11">
+        <v>13100</v>
+      </c>
+      <c r="JL93" s="11">
+        <v>13000</v>
+      </c>
     </row>
-    <row r="94" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>134</v>
       </c>
@@ -71798,8 +72314,14 @@
       <c r="JJ94" s="11">
         <v>4900</v>
       </c>
+      <c r="JK94" s="11">
+        <v>4800</v>
+      </c>
+      <c r="JL94" s="11">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="96" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
         <v>192</v>
       </c>
